--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C8C6F7-BB93-4E23-B05F-FE749F860F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66EA64-1D06-4D21-B7B3-DFADFAF3660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -882,10 +882,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4d1129h13,S1b0130h14,S1b0130h16,S2c0825h07,S3aH3,S4d1129h08,S1b0130h09,S2c0825h16,S1aH2,S1b0130h07,S2aH3,S2c0825h11,S1b0130h15,S2aH4,S5aH2,S1b0130h11,S2c0825h14,S2c0825h15,S3aH4,S4aH3,S4aH4,S4d1129h09,S4d1129h18,S2c0825h12,S1b0130h12,S1b0130h13,S2c0825h10,S1aH3,S1aH4,S2aH2,S4d1129h07,S4d1129h10,S4d1129h17,S2c0825h09,S4aH2,S1b0130h08,S2c0825h17,S3aH2,S4d1129h12,S4d1129h15,S4d1129h16,S1b0130h10,S2c0825h13,S2c0825h18,S5aH3,S4d1129h11,S1b0130h17,S2c0825h08,S4d1129h14,S1b0130h18,S5aH4</t>
-  </si>
-  <si>
-    <t>S2c0825h06,S4d1129h03,S4aH6,S1b0130h02,S1b0130h06,S2aH6,S2c0825h03,S2c0825h05,S3aH1,S3aH5,S1b0130h20,S2c0825h02,S4d1129h24,S1aH6,S1b0130h04,S1b0130h19,S2c0825h19,S2c0825h23,S4d1129h21,S1b0130h21,S2c0825h21,S2c0825h22,S4d1129h05,S1aH1,S2aH7,S2c0825h20,S4d1129h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH1,S4d1129h01,S4d1129h20,S4d1129h23,S1b0130h22,S2aH1,S2c0825h01,S2c0825h24,S3aH7,S4d1129h02,S4d1129h19,S1b0130h23,S4aH5,S1b0130h03,S1b0130h24,S5aH1,S4d1129h04,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S5aH5,S2c0825h04,S4d1129h06</t>
+    <t>S1b0130h14,S1b0130h16,S2c0825h07,S3aH3,S4d1129h08,S1b0130h09,S2c0825h16,S1b0130h11,S2c0825h14,S2c0825h15,S3aH4,S4aH3,S4aH4,S4d1129h09,S4d1129h18,S1b0130h15,S2aH4,S5aH2,S1b0130h17,S2c0825h08,S4d1129h14,S1aH3,S1b0130h10,S2c0825h13,S2c0825h18,S5aH3,S2c0825h09,S4aH2,S1aH2,S1b0130h07,S2aH3,S2c0825h11,S1aH4,S2aH2,S4d1129h07,S4d1129h10,S4d1129h17,S1b0130h12,S1b0130h13,S2c0825h10,S4d1129h13,S1b0130h08,S2c0825h17,S3aH2,S4d1129h12,S4d1129h15,S4d1129h16,S2c0825h12,S4d1129h11,S1b0130h18,S5aH4</t>
+  </si>
+  <si>
+    <t>S4aH6,S1b0130h02,S1b0130h06,S2aH6,S2c0825h03,S2c0825h05,S3aH1,S3aH5,S2c0825h23,S4d1129h21,S1aH6,S1b0130h04,S1b0130h19,S2c0825h19,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S5aH5,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0130h03,S1b0130h24,S5aH1,S1b0130h22,S2aH1,S2c0825h01,S2c0825h24,S3aH7,S4d1129h02,S4d1129h19,S1b0130h20,S2c0825h02,S4d1129h24,S4aH1,S4d1129h01,S4d1129h20,S4d1129h23,S1aH1,S2aH7,S2c0825h20,S4d1129h22,S2c0825h06,S4d1129h03,S1b0130h23,S4aH5,S1b0130h21,S2c0825h21,S2c0825h22,S4d1129h05,S4d1129h04,S2c0825h04,S4d1129h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0825h06,S4d1129h03,S4aH6,S1b0130h02,S1b0130h06,S2aH6,S2c0825h03,S2c0825h05,S3aH1,S3aH5,S1b0130h20,S2c0825h02,S4d1129h24,S1aH6,S1b0130h04,S1b0130h19,S2c0825h19,S2c0825h23,S4d1129h21,S1b0130h21,S2c0825h21,S2c0825h22,S4d1129h05,S1aH1,S2aH7,S2c0825h20,S4d1129h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH1,S4d1129h01,S4d1129h20,S4d1129h23,S1b0130h22,S2aH1,S2c0825h01,S2c0825h24,S3aH7,S4d1129h02,S4d1129h19,S1b0130h23,S4aH5,S1b0130h03,S1b0130h24,S5aH1,S4d1129h04,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S5aH5,S2c0825h04,S4d1129h06</v>
+        <v>S4aH6,S1b0130h02,S1b0130h06,S2aH6,S2c0825h03,S2c0825h05,S3aH1,S3aH5,S2c0825h23,S4d1129h21,S1aH6,S1b0130h04,S1b0130h19,S2c0825h19,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S5aH5,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0130h03,S1b0130h24,S5aH1,S1b0130h22,S2aH1,S2c0825h01,S2c0825h24,S3aH7,S4d1129h02,S4d1129h19,S1b0130h20,S2c0825h02,S4d1129h24,S4aH1,S4d1129h01,S4d1129h20,S4d1129h23,S1aH1,S2aH7,S2c0825h20,S4d1129h22,S2c0825h06,S4d1129h03,S1b0130h23,S4aH5,S1b0130h21,S2c0825h21,S2c0825h22,S4d1129h05,S4d1129h04,S2c0825h04,S4d1129h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4d1129h13,S1b0130h14,S1b0130h16,S2c0825h07,S3aH3,S4d1129h08,S1b0130h09,S2c0825h16,S1aH2,S1b0130h07,S2aH3,S2c0825h11,S1b0130h15,S2aH4,S5aH2,S1b0130h11,S2c0825h14,S2c0825h15,S3aH4,S4aH3,S4aH4,S4d1129h09,S4d1129h18,S2c0825h12,S1b0130h12,S1b0130h13,S2c0825h10,S1aH3,S1aH4,S2aH2,S4d1129h07,S4d1129h10,S4d1129h17,S2c0825h09,S4aH2,S1b0130h08,S2c0825h17,S3aH2,S4d1129h12,S4d1129h15,S4d1129h16,S1b0130h10,S2c0825h13,S2c0825h18,S5aH3,S4d1129h11,S1b0130h17,S2c0825h08,S4d1129h14,S1b0130h18,S5aH4</v>
+        <v>S1b0130h14,S1b0130h16,S2c0825h07,S3aH3,S4d1129h08,S1b0130h09,S2c0825h16,S1b0130h11,S2c0825h14,S2c0825h15,S3aH4,S4aH3,S4aH4,S4d1129h09,S4d1129h18,S1b0130h15,S2aH4,S5aH2,S1b0130h17,S2c0825h08,S4d1129h14,S1aH3,S1b0130h10,S2c0825h13,S2c0825h18,S5aH3,S2c0825h09,S4aH2,S1aH2,S1b0130h07,S2aH3,S2c0825h11,S1aH4,S2aH2,S4d1129h07,S4d1129h10,S4d1129h17,S1b0130h12,S1b0130h13,S2c0825h10,S4d1129h13,S1b0130h08,S2c0825h17,S3aH2,S4d1129h12,S4d1129h15,S4d1129h16,S2c0825h12,S4d1129h11,S1b0130h18,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2102,7 +2102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906B4531-4317-4ED3-BA91-DAC310D38F70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817D8973-F1DF-48EA-819D-21413B019D61}">
   <dimension ref="B2:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2808,7 +2808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B26E2A-8F53-4687-BF7D-7A76A095FC8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8977B8-AE06-4EE8-9E47-0FF01CE0336C}">
   <dimension ref="B2:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2887,10 +2887,10 @@
         <v>276</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>9.0853068051765129E-2</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O4" t="s">
         <v>287</v>
@@ -2922,10 +2922,10 @@
         <v>276</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>9.9621445549784318E-2</v>
+        <v>0.49810722774892152</v>
       </c>
       <c r="O5" t="s">
         <v>287</v>
@@ -2957,10 +2957,10 @@
         <v>276</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.41729025442380496</v>
+        <v>9.9621445549784304E-2</v>
       </c>
       <c r="O6" t="s">
         <v>287</v>
@@ -3027,10 +3027,10 @@
         <v>276</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N8">
-        <v>0.49810722774892163</v>
+        <v>9.0853068051765115E-2</v>
       </c>
       <c r="O8" t="s">
         <v>287</v>
@@ -5694,7 +5694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BD1B7-3976-44A7-A5C3-B1C39D947B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9102D-A3D3-47A1-B695-D04B67E4C7AD}">
   <dimension ref="B2:O217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
